--- a/media/Carga_Conductores.xlsx
+++ b/media/Carga_Conductores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocaglobal-my.sharepoint.com/personal/nicolas_vilches_ocaglobal_onmicrosoft_com/Documents/Escritorio/Excel Importar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A8A7B41-5F42-4465-8E5B-77C914A712A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{0A8A7B41-5F42-4465-8E5B-77C914A712A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{460418A5-8E12-49EC-87DE-AF66C4542CB8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{83C5E142-4FFE-479A-85B3-44B4C0E5A963}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="127">
   <si>
     <t>Nombre</t>
   </si>
@@ -53,26 +53,388 @@
     <t>Empresa</t>
   </si>
   <si>
-    <t>Nicolas Vilches</t>
-  </si>
-  <si>
-    <t>20752865-K</t>
+    <t>Logistica</t>
+  </si>
+  <si>
+    <t>TLN</t>
+  </si>
+  <si>
+    <t>Ashby Tweed</t>
+  </si>
+  <si>
+    <t>087772128-9</t>
+  </si>
+  <si>
+    <t>07/07/2024</t>
   </si>
   <si>
     <t>VPS</t>
+  </si>
+  <si>
+    <t>Deana Feedham</t>
+  </si>
+  <si>
+    <t>629757862-1</t>
+  </si>
+  <si>
+    <t>11/01/2025</t>
+  </si>
+  <si>
+    <t>Diacel</t>
+  </si>
+  <si>
+    <t>Karin Wickliffe</t>
+  </si>
+  <si>
+    <t>312287112-2</t>
+  </si>
+  <si>
+    <t>15/06/2024</t>
+  </si>
+  <si>
+    <t>Vernor Scotchforth</t>
+  </si>
+  <si>
+    <t>182874256-2</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>Randstad</t>
+  </si>
+  <si>
+    <t>Krystyna Weedall</t>
+  </si>
+  <si>
+    <t>776858863-0</t>
+  </si>
+  <si>
+    <t>20/02/2024</t>
+  </si>
+  <si>
+    <t>Christin Zanetto</t>
+  </si>
+  <si>
+    <t>898577859-5</t>
+  </si>
+  <si>
+    <t>21/04/2024</t>
+  </si>
+  <si>
+    <t>Gertrude Witson</t>
+  </si>
+  <si>
+    <t>047963231-6</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>Roderic Stigger</t>
+  </si>
+  <si>
+    <t>786604291-8</t>
+  </si>
+  <si>
+    <t>11/03/2024</t>
+  </si>
+  <si>
+    <t>Iona Broske</t>
+  </si>
+  <si>
+    <t>535880764-0</t>
+  </si>
+  <si>
+    <t>14/07/2024</t>
+  </si>
+  <si>
+    <t>Mendie Alpin</t>
+  </si>
+  <si>
+    <t>353082855-6</t>
+  </si>
+  <si>
+    <t>Opalina Benning</t>
+  </si>
+  <si>
+    <t>265660899-6</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>Andris Challes</t>
+  </si>
+  <si>
+    <t>575635262-7</t>
+  </si>
+  <si>
+    <t>20/12/2024</t>
+  </si>
+  <si>
+    <t>Transwell</t>
+  </si>
+  <si>
+    <t>Carolin Domleo</t>
+  </si>
+  <si>
+    <t>702637915-1</t>
+  </si>
+  <si>
+    <t>29/08/2024</t>
+  </si>
+  <si>
+    <t>Harlen Mussared</t>
+  </si>
+  <si>
+    <t>224501796-X</t>
+  </si>
+  <si>
+    <t>28/09/2024</t>
+  </si>
+  <si>
+    <t>Microempresario</t>
+  </si>
+  <si>
+    <t>Norina Snedker</t>
+  </si>
+  <si>
+    <t>142969695-8</t>
+  </si>
+  <si>
+    <t>Ase Stoller</t>
+  </si>
+  <si>
+    <t>121659549-6</t>
+  </si>
+  <si>
+    <t>11/08/2024</t>
+  </si>
+  <si>
+    <t>Alvina Ferandez</t>
+  </si>
+  <si>
+    <t>763697309-X</t>
+  </si>
+  <si>
+    <t>29/10/2024</t>
+  </si>
+  <si>
+    <t>Bea McNeil</t>
+  </si>
+  <si>
+    <t>358374653-8</t>
+  </si>
+  <si>
+    <t>09/06/2024</t>
+  </si>
+  <si>
+    <t>Sadella Dunkinson</t>
+  </si>
+  <si>
+    <t>235224323-8</t>
+  </si>
+  <si>
+    <t>01/01/2025</t>
+  </si>
+  <si>
+    <t>Nikos Roiz</t>
+  </si>
+  <si>
+    <t>231317504-9</t>
+  </si>
+  <si>
+    <t>13/05/2024</t>
+  </si>
+  <si>
+    <t>Eliot Males</t>
+  </si>
+  <si>
+    <t>591321971-6</t>
+  </si>
+  <si>
+    <t>Germain Gherardelli</t>
+  </si>
+  <si>
+    <t>931149028-8</t>
+  </si>
+  <si>
+    <t>26/12/2024</t>
+  </si>
+  <si>
+    <t>C.A.C</t>
+  </si>
+  <si>
+    <t>Miller Androli</t>
+  </si>
+  <si>
+    <t>533942838-9</t>
+  </si>
+  <si>
+    <t>Rock Truck</t>
+  </si>
+  <si>
+    <t>Nicol Vieyra</t>
+  </si>
+  <si>
+    <t>234139245-8</t>
+  </si>
+  <si>
+    <t>02/04/2024</t>
+  </si>
+  <si>
+    <t>Scarlet Rudham</t>
+  </si>
+  <si>
+    <t>395435195-1</t>
+  </si>
+  <si>
+    <t>01/09/2024</t>
+  </si>
+  <si>
+    <t>Adelaida Beartup</t>
+  </si>
+  <si>
+    <t>866742648-2</t>
+  </si>
+  <si>
+    <t>20/06/2024</t>
+  </si>
+  <si>
+    <t>Bianka Bew</t>
+  </si>
+  <si>
+    <t>424278603-4</t>
+  </si>
+  <si>
+    <t>05/02/2025</t>
+  </si>
+  <si>
+    <t>Harold Real</t>
+  </si>
+  <si>
+    <t>192267347-1</t>
+  </si>
+  <si>
+    <t>20/03/2024</t>
+  </si>
+  <si>
+    <t>Ham Halwood</t>
+  </si>
+  <si>
+    <t>809556661-6</t>
+  </si>
+  <si>
+    <t>Phebe Saile</t>
+  </si>
+  <si>
+    <t>417055526-0</t>
+  </si>
+  <si>
+    <t>Willard Weatherill</t>
+  </si>
+  <si>
+    <t>590036296-5</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>Ermina Houlworth</t>
+  </si>
+  <si>
+    <t>444231423-3</t>
+  </si>
+  <si>
+    <t>13/01/2025</t>
+  </si>
+  <si>
+    <t>Burtie Fleming</t>
+  </si>
+  <si>
+    <t>846045269-7</t>
+  </si>
+  <si>
+    <t>06/04/2024</t>
+  </si>
+  <si>
+    <t>Bentlee Dabner</t>
+  </si>
+  <si>
+    <t>223573240-2</t>
+  </si>
+  <si>
+    <t>30/09/2024</t>
+  </si>
+  <si>
+    <t>Chaddie Mullord</t>
+  </si>
+  <si>
+    <t>182747428-9</t>
+  </si>
+  <si>
+    <t>11/07/2024</t>
+  </si>
+  <si>
+    <t>Darby McLeman</t>
+  </si>
+  <si>
+    <t>969188777-0</t>
+  </si>
+  <si>
+    <t>29/02/2024</t>
+  </si>
+  <si>
+    <t>Sandy Martinyuk</t>
+  </si>
+  <si>
+    <t>532153006-8</t>
+  </si>
+  <si>
+    <t>08/10/2024</t>
+  </si>
+  <si>
+    <t>Graeme Van Daalen</t>
+  </si>
+  <si>
+    <t>251808332-4</t>
+  </si>
+  <si>
+    <t>Gill Butner</t>
+  </si>
+  <si>
+    <t>079453231-4</t>
+  </si>
+  <si>
+    <t>03/08/2024</t>
+  </si>
+  <si>
+    <t>Leelah Wetherhead</t>
+  </si>
+  <si>
+    <t>471786201-5</t>
+  </si>
+  <si>
+    <t>01/11/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,20 +454,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{91FB04AA-16BA-4848-AF32-1551F32E43C4}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -121,13 +485,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC9A932F-7A8C-4FC2-8BE1-9A9DE807459F}" name="Tabla1" displayName="Tabla1" ref="A1:E2" totalsRowShown="0">
-  <autoFilter ref="A1:E2" xr:uid="{BC9A932F-7A8C-4FC2-8BE1-9A9DE807459F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC9A932F-7A8C-4FC2-8BE1-9A9DE807459F}" name="Tabla1" displayName="Tabla1" ref="A1:E41" totalsRowShown="0">
+  <autoFilter ref="A1:E41" xr:uid="{BC9A932F-7A8C-4FC2-8BE1-9A9DE807459F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7137A55D-D7F3-4F7A-B0F0-D1F1A306841F}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{76AD3F4C-963F-4A36-8956-45D70FAA3D2E}" name="RUT"/>
-    <tableColumn id="3" xr3:uid="{05749444-519F-4E04-BCC5-D5946D425809}" name="Telefono" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{84010226-8A40-40F8-A5E2-0827A205BDF4}" name="FechaVencimientoLicencia"/>
+    <tableColumn id="3" xr3:uid="{05749444-519F-4E04-BCC5-D5946D425809}" name="Telefono"/>
+    <tableColumn id="4" xr3:uid="{84010226-8A40-40F8-A5E2-0827A205BDF4}" name="FechaVencimientoLicencia" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{5B688E80-8023-4084-A1D1-04D4DC3A6BB0}" name="Empresa"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -451,17 +815,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43D421C-7ACC-42D3-8C21-D29439A1C226}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -482,20 +848,683 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>936050821</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>912041378</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>911300000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>997116328</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>998118922</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>962650292</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2">
+        <v>941749187</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2">
+        <v>957114090</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2">
+        <v>928808637</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
+        <v>938885812</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2">
+        <v>974079698</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2">
+        <v>985675133</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2">
+        <v>949892800</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2">
+        <v>938264109</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="2">
+        <v>987055815</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2">
+        <v>956017993</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="2">
+        <v>972135829</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2">
+        <v>959804471</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="2">
+        <v>951283256</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>569912345678</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45809</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2">
+        <v>977515920</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="2">
+        <v>973278512</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="2">
+        <v>998892401</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="2">
+        <v>959398262</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="2">
+        <v>990337298</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2">
+        <v>976907844</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="2">
+        <v>960063644</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="2">
+        <v>962231159</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="2">
+        <v>990642846</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="2">
+        <v>989298307</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="2">
+        <v>932155550</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="2">
+        <v>915910085</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="2">
+        <v>933673338</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="2">
+        <v>994315454</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="2">
+        <v>921225914</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="2">
+        <v>940657092</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="2">
+        <v>925085043</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="2">
+        <v>935079146</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="2">
+        <v>929335366</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="2">
+        <v>976601527</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="2">
+        <v>916231145</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
